--- a/Dan Team/Richard/ActionParameters/Default.xlsx
+++ b/Dan Team/Richard/ActionParameters/Default.xlsx
@@ -15,30 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>username</t>
+    <t>B</t>
   </si>
   <si>
-    <t>aidemo</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>pass32</t>
-  </si>
-  <si>
-    <t>AIdemo1</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -183,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -191,43 +173,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -526,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -540,34 +492,10 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
